--- a/Amiga2000rev6.2.incl.mods.rev-1.8.5-Bestelliste.xlsx
+++ b/Amiga2000rev6.2.incl.mods.rev-1.8.5-Bestelliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeroen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeroen\Desktop\Amiga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9FE470-8C32-40D3-A815-66A1FCAE95CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{448447DB-7D5F-444B-BB85-4C59A67FA57B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="667" yWindow="460" windowWidth="18666" windowHeight="13340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Amiga2000rev6.2.incl.mods.rev-1" sheetId="1" r:id="rId1"/>
@@ -3512,8 +3512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D395" workbookViewId="0">
-      <selection activeCell="K406" sqref="K406"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4256,7 +4256,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.5">
@@ -4582,7 +4582,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.5">
@@ -5472,14 +5472,14 @@
         <v>109</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>

--- a/Amiga2000rev6.2.incl.mods.rev-1.8.5-Bestelliste.xlsx
+++ b/Amiga2000rev6.2.incl.mods.rev-1.8.5-Bestelliste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeroen\Desktop\Amiga\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeroen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{448447DB-7D5F-444B-BB85-4C59A67FA57B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3B3C99-B1F0-4AF3-AFBB-A6773AD0051B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="875">
   <si>
     <t>No</t>
   </si>
@@ -3513,7 +3513,7 @@
   <dimension ref="A1:K570"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4256,7 +4256,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.5">
@@ -9508,14 +9508,16 @@
         <v>296</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E252" s="3"/>
+      <c r="E252" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="F252" s="3" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
